--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64E9A03-BB38-40F0-9A84-51F56E7B12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B827E67-C0F0-4F5B-B51B-FD7F8BE0B106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,9 +238,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -277,14 +274,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +605,7 @@
     <col min="6" max="6" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
@@ -630,156 +630,156 @@
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="20">
         <f>SUBTOTAL(9,I3:I99999)</f>
         <v>0</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="T1" s="7" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="T1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="8" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="str">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="str">
         <f>T3&amp;X3</f>
         <v/>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="17" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17" t="str">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16" t="str">
         <f>U3&amp;Y3</f>
         <v/>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17" t="str">
+      <c r="O3" s="15"/>
+      <c r="P3" s="16" t="str">
         <f>V3&amp;Z3</f>
         <v>datedate</v>
       </c>
-      <c r="Q3" s="17" t="str">
+      <c r="Q3" s="16" t="str">
         <f>W3&amp;AA3</f>
         <v>datedate</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16" t="s">
         <v>20</v>
       </c>
     </row>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B2D82-3C65-47AA-8B37-F5620F34EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198ABA5-3E2C-4D3F-894D-848C62B97DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Mes</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Reserva</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
   </si>
 </sst>
 </file>
@@ -676,9 +679,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="str">
-        <f>"Ingresos " &amp;$B$4&amp;"/"&amp;$C$4</f>
-        <v>Ingresos /</v>
+      <c r="A1" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="11"/>
       <c r="G1" s="16"/>
@@ -694,7 +696,10 @@
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="11" t="str">
+        <f>$B$4&amp;"/"&amp;$C$4</f>
+        <v>/</v>
+      </c>
       <c r="B2" s="11"/>
       <c r="G2" s="16"/>
       <c r="H2" s="12" t="str">

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B827E67-C0F0-4F5B-B51B-FD7F8BE0B106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC6F3F-B8D1-44A5-BDA4-2748D66E55AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,7 +593,9 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC6F3F-B8D1-44A5-BDA4-2748D66E55AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B3264-5704-4FD3-842D-956A99A3EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B3264-5704-4FD3-842D-956A99A3EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,8 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.0000000000_);\(\$#,##0.0000000000\)"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -224,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,6 +286,12 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,9 +600,7 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -747,7 +752,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="18"/>
@@ -758,30 +763,30 @@
         <v/>
       </c>
       <c r="O3" s="15"/>
-      <c r="P3" s="16" t="str">
-        <f>V3&amp;Z3</f>
-        <v>datedate</v>
-      </c>
-      <c r="Q3" s="16" t="str">
-        <f>W3&amp;AA3</f>
-        <v>datedate</v>
+      <c r="P3" s="21" t="e">
+        <f>V3+Z3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q3" s="21" t="e">
+        <f>W3+AA3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="16"/>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="21" t="s">
         <v>20</v>
       </c>
     </row>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF30625-C35B-42CD-8876-9464FF898502}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.0000000000_);\(\$#,##0.0000000000\)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -227,9 +234,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,27 +252,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -290,8 +273,32 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,6 +315,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,189 +615,189 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="12">
         <f>SUBTOTAL(9,I3:I99999)</f>
         <v>0</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="T1" s="6" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="T1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="7" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:27" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="str">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="str">
         <f>T3&amp;X3</f>
         <v/>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16" t="str">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8" t="str">
         <f>U3&amp;Y3</f>
         <v/>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="21" t="e">
+      <c r="O3" s="7"/>
+      <c r="P3" s="13" t="e">
         <f>V3+Z3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q3" s="21" t="e">
+      <c r="Q3" s="13" t="e">
         <f>W3+AA3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="21" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="21" t="s">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AA3" s="13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF30625-C35B-42CD-8876-9464FF898502}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106776CB-9DBF-4C19-83CB-520406BD609B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7"/>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106776CB-9DBF-4C19-83CB-520406BD609B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B5C71B-1819-4284-A36E-BC9243F01B71}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AA$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AC$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Pagos</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Código autoriz.</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -609,21 +615,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="9" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
@@ -632,16 +638,18 @@
     <col min="15" max="15" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="55.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="55.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -656,20 +664,20 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
       <c r="W1" s="5"/>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -723,39 +731,45 @@
       <c r="S2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="str">
-        <f>T3&amp;X3</f>
+        <f>V3&amp;Z3</f>
         <v/>
       </c>
       <c r="E3" s="7"/>
@@ -770,39 +784,41 @@
       <c r="L3" s="10"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="str">
-        <f>U3&amp;Y3</f>
+        <f>W3&amp;AA3</f>
         <v/>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="13" t="e">
-        <f>V3+Z3</f>
+        <f>X3+AB3</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q3" s="13" t="e">
-        <f>W3+AA3</f>
+        <f>Y3+AC3</f>
         <v>#VALUE!</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AC2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/app/templates/report/pagos.xlsx
+++ b/app/templates/report/pagos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{68962ED3-D32C-479F-A1B7-9DEE3B65A9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B5C71B-1819-4284-A36E-BC9243F01B71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01CB71D-68A4-43F9-9B80-2FB719AD142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AC$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AD$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Pagos</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -323,10 +326,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -615,7 +614,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,21 +634,21 @@
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="55.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="55.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="55.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="55.85546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -663,21 +662,21 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="V1" s="5" t="s">
+      <c r="R1" s="4"/>
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="6"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:29" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -720,56 +719,59 @@
         <v>14</v>
       </c>
       <c r="P2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="str">
-        <f>V3&amp;Z3</f>
+        <f>W3&amp;AA3</f>
         <v/>
       </c>
       <c r="E3" s="7"/>
@@ -784,41 +786,42 @@
       <c r="L3" s="10"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="str">
-        <f>W3&amp;AA3</f>
+        <f>X3&amp;AB3</f>
         <v/>
       </c>
       <c r="O3" s="7"/>
-      <c r="P3" s="13" t="e">
-        <f>X3+AB3</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="P3" s="7"/>
       <c r="Q3" s="13" t="e">
         <f>Y3+AC3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="13" t="e">
+        <f>Z3+AD3</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="8"/>
       <c r="Y3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
       <c r="AC3" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="AD3" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AC2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AD2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
